--- a/matrizz2.xlsx
+++ b/matrizz2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cosas de gente responsable\Universidad\Tercero\IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B07D4-1307-4354-B103-EAAA156FE42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7B50AB-5CFF-4ED8-A262-C3339BE33CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11472" yWindow="9420" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="77">
   <si>
     <t>Proveedor</t>
   </si>
@@ -207,9 +207,6 @@
     <t>RN007</t>
   </si>
   <si>
-    <t>RC000</t>
-  </si>
-  <si>
     <t>RN008</t>
   </si>
   <si>
@@ -228,24 +225,12 @@
     <t>RN012</t>
   </si>
   <si>
-    <t>RC001</t>
-  </si>
-  <si>
     <t>RC002</t>
   </si>
   <si>
-    <t>RC003</t>
-  </si>
-  <si>
-    <t>RC004</t>
-  </si>
-  <si>
     <t>RC005</t>
   </si>
   <si>
-    <t>RC006</t>
-  </si>
-  <si>
     <t>RC007</t>
   </si>
   <si>
@@ -264,25 +249,19 @@
     <t>RC012</t>
   </si>
   <si>
-    <t>RC013</t>
-  </si>
-  <si>
     <t>RC014</t>
   </si>
   <si>
     <t>RC015</t>
   </si>
   <si>
-    <t>RC016</t>
-  </si>
-  <si>
     <t>RC017</t>
   </si>
   <si>
-    <t>RC018</t>
-  </si>
-  <si>
     <t>RC019</t>
+  </si>
+  <si>
+    <t>RI0012</t>
   </si>
 </sst>
 </file>
@@ -343,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -449,11 +428,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -536,6 +526,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U118"/>
+  <dimension ref="A2:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -882,8 +890,8 @@
     <col min="22" max="22" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1"/>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
+    <row r="2" spans="1:14" ht="15" thickBot="1"/>
+    <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -921,8 +929,11 @@
       <c r="M3" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
+      <c r="N3" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -944,8 +955,9 @@
       <c r="M4" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1">
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -967,8 +979,11 @@
       <c r="K5" s="17"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
+      <c r="N5" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
@@ -986,8 +1001,9 @@
       <c r="K6" s="14"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1023,9 @@
       <c r="K7" s="17"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1">
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -1034,8 +1051,9 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -1059,8 +1077,11 @@
       <c r="M9" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="N9" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1099,9 @@
       <c r="K10" s="14"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -1097,8 +1119,9 @@
       <c r="K11" s="17"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1116,8 +1139,9 @@
       <c r="K12" s="14"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1135,8 +1159,9 @@
       <c r="K13" s="17"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1156,8 +1181,9 @@
       <c r="K14" s="14"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1181,8 +1207,11 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+      <c r="N15" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
@@ -1200,8 +1229,9 @@
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1219,8 +1249,9 @@
       <c r="K17" s="17"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1238,8 +1269,11 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="N18" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1">
       <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
@@ -1259,8 +1293,9 @@
       <c r="M19" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1">
       <c r="A20" s="8" t="s">
         <v>44</v>
       </c>
@@ -1280,8 +1315,11 @@
         <v>36</v>
       </c>
       <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="N20" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -1299,8 +1337,9 @@
       <c r="K21" s="17"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1318,8 +1357,9 @@
       <c r="K22" s="18"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -1339,8 +1379,9 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1">
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1360,8 +1401,9 @@
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1">
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -1383,8 +1425,9 @@
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1">
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -1402,8 +1445,9 @@
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1">
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
@@ -1421,8 +1465,9 @@
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1">
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -1440,8 +1485,9 @@
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1">
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -1459,8 +1505,9 @@
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1">
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -1478,8 +1525,9 @@
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1">
+      <c r="N30" s="18"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1497,8 +1545,9 @@
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1">
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1516,8 +1565,9 @@
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
-    </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1">
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="1:14" ht="15" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -1535,8 +1585,9 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1">
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
@@ -1554,8 +1605,9 @@
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
-    </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1">
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="1:14" ht="15" thickBot="1">
       <c r="A35" s="8" t="s">
         <v>47</v>
       </c>
@@ -1571,8 +1623,11 @@
       <c r="K35" s="17"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="N35" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="8" t="s">
         <v>45</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
-    </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1">
+      <c r="N36" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" thickBot="1">
       <c r="A37" s="8" t="s">
         <v>46</v>
       </c>
@@ -1605,8 +1663,11 @@
       <c r="K37" s="17"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-    </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1">
+      <c r="N37" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" thickBot="1">
       <c r="A38" s="8" t="s">
         <v>48</v>
       </c>
@@ -1624,8 +1685,11 @@
       <c r="K38" s="18"/>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
-    </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1">
+      <c r="N38" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" thickBot="1">
       <c r="A39" s="8" t="s">
         <v>49</v>
       </c>
@@ -1645,8 +1709,9 @@
       <c r="M39" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1">
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>50</v>
       </c>
@@ -1664,14 +1729,15 @@
       <c r="K40" s="18"/>
       <c r="L40" s="23"/>
       <c r="M40" s="23"/>
-    </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1"/>
-    <row r="42" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="2"/>
+      <c r="N40" s="23"/>
+    </row>
+    <row r="41" spans="1:14" ht="15" thickBot="1"/>
+    <row r="42" spans="1:14" ht="15" customHeight="1" thickBot="1">
+      <c r="A42" s="31"/>
       <c r="B42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -1683,10 +1749,10 @@
       <c r="F42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="5" t="s">
         <v>70</v>
       </c>
       <c r="I42" s="5" t="s">
@@ -1704,526 +1770,332 @@
       <c r="M42" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="S42" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1">
-      <c r="A43" s="8" t="s">
+    </row>
+    <row r="43" spans="1:14" ht="15" thickBot="1">
+      <c r="A43" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T43" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U43" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1">
-      <c r="A44" s="8" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" thickBot="1">
+      <c r="A44" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="15" thickBot="1">
-      <c r="A45" s="8" t="s">
+      <c r="B44" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="29"/>
+      <c r="M44" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" thickBot="1">
+      <c r="A45" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="14"/>
-    </row>
-    <row r="46" spans="1:21" ht="15" thickBot="1">
-      <c r="A46" s="8" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" thickBot="1">
+      <c r="A46" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="17"/>
-    </row>
-    <row r="47" spans="1:21" ht="15" thickBot="1">
-      <c r="A47" s="8" t="s">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="17"/>
+    </row>
+    <row r="47" spans="1:14" ht="15" thickBot="1">
+      <c r="A47" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="S47" s="1"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="14"/>
-    </row>
-    <row r="48" spans="1:21" ht="15" thickBot="1">
-      <c r="A48" s="8" t="s">
+      <c r="B47" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="14"/>
+    </row>
+    <row r="48" spans="1:14" ht="15" thickBot="1">
+      <c r="A48" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K48" s="17"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O48" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="P48" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="17"/>
-    </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1">
-      <c r="A49" s="8" t="s">
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="17"/>
+    </row>
+    <row r="49" spans="1:13" ht="15" thickBot="1">
+      <c r="A49" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="14"/>
-    </row>
-    <row r="50" spans="1:21" ht="15" thickBot="1">
-      <c r="A50" s="8" t="s">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" thickBot="1">
+      <c r="A50" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="17"/>
-    </row>
-    <row r="51" spans="1:21" ht="15" thickBot="1">
-      <c r="A51" s="8" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" thickBot="1">
+      <c r="A51" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="14"/>
-    </row>
-    <row r="52" spans="1:21" ht="15" thickBot="1">
-      <c r="A52" s="8" t="s">
+      <c r="B51" s="4"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" thickBot="1">
+      <c r="A52" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="17"/>
-    </row>
-    <row r="53" spans="1:21" ht="15" thickBot="1">
-      <c r="A53" s="8" t="s">
+      <c r="B52" s="29"/>
+      <c r="C52" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" thickBot="1">
+      <c r="A53" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T53" s="13"/>
-      <c r="U53" s="14"/>
-    </row>
-    <row r="54" spans="1:21" ht="15" thickBot="1">
-      <c r="A54" s="8" t="s">
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" thickBot="1">
+      <c r="A54" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M54" s="10"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="R54" s="15"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="17"/>
-    </row>
-    <row r="55" spans="1:21" ht="15" thickBot="1">
-      <c r="A55" s="11" t="s">
+      <c r="B54" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="35"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="35"/>
+      <c r="M54" s="17"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" thickBot="1">
+      <c r="A55" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="14"/>
-    </row>
-    <row r="56" spans="1:21" ht="15" thickBot="1">
-      <c r="A56" s="8" t="s">
+      <c r="B55" s="28"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" thickBot="1">
+      <c r="A56" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="17"/>
-    </row>
-    <row r="57" spans="1:21" ht="15" thickBot="1">
-      <c r="A57" s="8" t="s">
+      <c r="B56" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57" spans="1:13" ht="15" thickBot="1">
+      <c r="A57" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="D57" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
-      <c r="I57" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-    </row>
-    <row r="58" spans="1:21" ht="15" thickBot="1">
-      <c r="A58" s="8" t="s">
+    </row>
+    <row r="58" spans="1:13" ht="15" thickBot="1">
+      <c r="A58" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="17"/>
-    </row>
-    <row r="59" spans="1:21" ht="15" thickBot="1">
-      <c r="A59" s="8" t="s">
+      <c r="B58" s="29"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="17"/>
+    </row>
+    <row r="59" spans="1:13" ht="15" thickBot="1">
+      <c r="A59" s="32" t="s">
         <v>44</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
-      <c r="F59" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
@@ -2231,102 +2103,64 @@
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-    </row>
-    <row r="60" spans="1:21" ht="15" thickBot="1">
-      <c r="A60" s="8" t="s">
+    </row>
+    <row r="60" spans="1:13" ht="15" thickBot="1">
+      <c r="A60" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="T60" s="16"/>
-      <c r="U60" s="17"/>
-    </row>
-    <row r="61" spans="1:21" ht="15" thickBot="1">
-      <c r="A61" s="8" t="s">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M60" s="17"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" thickBot="1">
+      <c r="A61" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="21"/>
-      <c r="U61" s="18"/>
-    </row>
-    <row r="62" spans="1:21" ht="15" thickBot="1">
-      <c r="A62" s="5" t="s">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="18"/>
+    </row>
+    <row r="62" spans="1:13" ht="15" thickBot="1">
+      <c r="A62" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="17"/>
-      <c r="C62" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="C62" s="17"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
-      <c r="H62" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-    </row>
-    <row r="63" spans="1:21" ht="15" thickBot="1">
-      <c r="A63" s="5" t="s">
+    </row>
+    <row r="63" spans="1:13" ht="15" thickBot="1">
+      <c r="A63" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B63" s="18"/>
@@ -2340,56 +2174,40 @@
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="15" thickBot="1">
-      <c r="A64" s="5" t="s">
+      <c r="M63" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15" thickBot="1">
+      <c r="A64" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="17"/>
+      <c r="B64" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="C64" s="17"/>
-      <c r="D64" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
+      <c r="K64" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-    </row>
-    <row r="65" spans="1:21" ht="15" thickBot="1">
-      <c r="A65" s="5" t="s">
+    </row>
+    <row r="65" spans="1:13" ht="15" thickBot="1">
+      <c r="A65" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="18"/>
+      <c r="B65" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="C65" s="18"/>
-      <c r="D65" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="D65" s="18"/>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -2399,17 +2217,9 @@
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18"/>
-    </row>
-    <row r="66" spans="1:21" ht="15" thickBot="1">
-      <c r="A66" s="5" t="s">
+    </row>
+    <row r="66" spans="1:13" ht="15" thickBot="1">
+      <c r="A66" s="34" t="s">
         <v>55</v>
       </c>
       <c r="B66" s="17"/>
@@ -2424,24 +2234,16 @@
       <c r="K66" s="17"/>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
-    </row>
-    <row r="67" spans="1:21" ht="15" thickBot="1">
-      <c r="A67" s="5" t="s">
+    </row>
+    <row r="67" spans="1:13" ht="15" thickBot="1">
+      <c r="A67" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="18"/>
+      <c r="B67" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="C67" s="18"/>
-      <c r="D67" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="D67" s="18"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -2451,17 +2253,9 @@
       <c r="K67" s="18"/>
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
-    </row>
-    <row r="68" spans="1:21" ht="15" thickBot="1">
-      <c r="A68" s="5" t="s">
+    </row>
+    <row r="68" spans="1:13" ht="15" thickBot="1">
+      <c r="A68" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B68" s="17"/>
@@ -2476,25 +2270,15 @@
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
       <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="17"/>
-    </row>
-    <row r="69" spans="1:21" ht="15" thickBot="1">
-      <c r="A69" s="5" t="s">
+    </row>
+    <row r="69" spans="1:13" ht="15" thickBot="1">
+      <c r="A69" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
-      <c r="E69" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="E69" s="18"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -2503,25 +2287,15 @@
       <c r="K69" s="18"/>
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
-    </row>
-    <row r="70" spans="1:21" ht="15" thickBot="1">
-      <c r="A70" s="5" t="s">
+    </row>
+    <row r="70" spans="1:13" ht="15" thickBot="1">
+      <c r="A70" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
@@ -2530,26 +2304,16 @@
       <c r="K70" s="17"/>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="17"/>
-    </row>
-    <row r="71" spans="1:21" ht="15" thickBot="1">
-      <c r="A71" s="5" t="s">
+    </row>
+    <row r="71" spans="1:13" ht="15" thickBot="1">
+      <c r="A71" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
-      <c r="F71" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
@@ -2557,27 +2321,15 @@
       <c r="K71" s="18"/>
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
-    </row>
-    <row r="72" spans="1:21" ht="15" thickBot="1">
-      <c r="A72" s="5" t="s">
+    </row>
+    <row r="72" spans="1:13" ht="15" thickBot="1">
+      <c r="A72" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="E72" s="17"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -2586,25 +2338,15 @@
       <c r="K72" s="17"/>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="17"/>
-    </row>
-    <row r="73" spans="1:21" ht="15" thickBot="1">
-      <c r="A73" s="5" t="s">
+    </row>
+    <row r="73" spans="1:13" ht="15" thickBot="1">
+      <c r="A73" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -2613,44 +2355,28 @@
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-    </row>
-    <row r="74" spans="1:21" ht="15" thickBot="1">
-      <c r="A74" s="8" t="s">
+    </row>
+    <row r="74" spans="1:13" ht="15" thickBot="1">
+      <c r="A74" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="17"/>
-    </row>
-    <row r="75" spans="1:21" ht="15" thickBot="1">
-      <c r="A75" s="8" t="s">
+      <c r="B74" s="29"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="17"/>
+    </row>
+    <row r="75" spans="1:13" ht="15" thickBot="1">
+      <c r="A75" s="32" t="s">
         <v>45</v>
       </c>
       <c r="B75" s="18"/>
@@ -2665,69 +2391,45 @@
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-    </row>
-    <row r="76" spans="1:21" ht="15" thickBot="1">
-      <c r="A76" s="8" t="s">
+    </row>
+    <row r="76" spans="1:13" ht="15" thickBot="1">
+      <c r="A76" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="17"/>
-    </row>
-    <row r="77" spans="1:21" ht="15" thickBot="1">
-      <c r="A77" s="8" t="s">
+      <c r="B76" s="29"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="17"/>
+    </row>
+    <row r="77" spans="1:13" ht="15" thickBot="1">
+      <c r="A77" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K77" s="18"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="20"/>
-      <c r="T77" s="21"/>
-      <c r="U77" s="18"/>
-    </row>
-    <row r="78" spans="1:21" ht="15" thickBot="1">
-      <c r="A78" s="8" t="s">
+      <c r="B77" s="30"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="18"/>
+    </row>
+    <row r="78" spans="1:13" ht="15" thickBot="1">
+      <c r="A78" s="32" t="s">
         <v>49</v>
       </c>
       <c r="B78" s="17"/>
@@ -2742,43 +2444,25 @@
       <c r="K78" s="17"/>
       <c r="L78" s="17"/>
       <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="17"/>
-      <c r="T78" s="17"/>
-      <c r="U78" s="17"/>
-    </row>
-    <row r="79" spans="1:21" ht="15" thickBot="1">
-      <c r="A79" s="5" t="s">
+    </row>
+    <row r="79" spans="1:13" ht="15" thickBot="1">
+      <c r="A79" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
-      <c r="S79" s="23"/>
-      <c r="T79" s="24"/>
-      <c r="U79" s="18"/>
-    </row>
-    <row r="80" spans="1:21" ht="15" thickBot="1"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="18"/>
+    </row>
+    <row r="80" spans="1:13" ht="15" thickBot="1"/>
     <row r="81" spans="1:15" ht="15" thickBot="1">
       <c r="A81" s="2"/>
       <c r="B81" s="5" t="s">
@@ -2806,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="J81" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K81" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K81" s="5" t="s">
+      <c r="L81" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L81" s="5" t="s">
+      <c r="M81" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="N81" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O81" s="27" t="s">
         <v>62</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O81" s="27" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="15" customHeight="1" thickBot="1">

--- a/matrizz2.xlsx
+++ b/matrizz2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cosas de gente responsable\Universidad\Tercero\IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7B50AB-5CFF-4ED8-A262-C3339BE33CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD1C8A-077B-477D-91BF-96DAF0073589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,29 +246,29 @@
     <t>RC011</t>
   </si>
   <si>
-    <t>RC012</t>
-  </si>
-  <si>
-    <t>RC014</t>
-  </si>
-  <si>
-    <t>RC015</t>
-  </si>
-  <si>
-    <t>RC017</t>
-  </si>
-  <si>
-    <t>RC019</t>
-  </si>
-  <si>
     <t>RI0012</t>
+  </si>
+  <si>
+    <t>RC000</t>
+  </si>
+  <si>
+    <t>RC001</t>
+  </si>
+  <si>
+    <t>RC003</t>
+  </si>
+  <si>
+    <t>RC004</t>
+  </si>
+  <si>
+    <t>RC006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,11 +861,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -890,8 +890,8 @@
     <col min="22" max="22" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15" thickBot="1"/>
-    <row r="3" spans="1:14" ht="15" thickBot="1">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -930,10 +930,10 @@
         <v>54</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -957,7 +957,7 @@
       </c>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -983,7 +983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1161,7 +1161,7 @@
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1">
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1">
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1">
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>44</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1">
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1">
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1">
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1">
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1">
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1">
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1">
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>47</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" thickBot="1">
+    <row r="36" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>45</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>46</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>48</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1">
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>49</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1">
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>50</v>
       </c>
@@ -1731,47 +1731,47 @@
       <c r="M40" s="23"/>
       <c r="N40" s="23"/>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1"/>
-    <row r="42" spans="1:14" ht="15" customHeight="1" thickBot="1">
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
       <c r="B42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="E42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="H42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="K42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="L42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="M42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>10</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" thickBot="1">
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>41</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="L45" s="28"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:14" ht="15" thickBot="1">
+    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>11</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="L46" s="29"/>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:14" ht="15" thickBot="1">
+    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>12</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:14" ht="15" thickBot="1">
+    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>13</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="L48" s="29"/>
       <c r="M48" s="17"/>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1">
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>14</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="L49" s="28"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1">
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>15</v>
       </c>
@@ -1935,7 +1935,7 @@
       <c r="L50" s="35"/>
       <c r="M50" s="17"/>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1">
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>16</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="L51" s="28"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1">
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>17</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="L52" s="29"/>
       <c r="M52" s="17"/>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1">
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>22</v>
       </c>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1">
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>23</v>
       </c>
@@ -2013,7 +2013,7 @@
       <c r="L54" s="35"/>
       <c r="M54" s="17"/>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1">
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="33" t="s">
         <v>24</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>25</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="L56" s="29"/>
       <c r="M56" s="17"/>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1">
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="s">
         <v>42</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1">
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>43</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="L58" s="35"/>
       <c r="M58" s="17"/>
     </row>
-    <row r="59" spans="1:13" ht="15" thickBot="1">
+    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
         <v>44</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>26</v>
       </c>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="M60" s="17"/>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="s">
         <v>27</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="L61" s="30"/>
       <c r="M61" s="18"/>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="34" t="s">
         <v>28</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
         <v>18</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1">
+    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="34" t="s">
         <v>29</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1">
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
         <v>30</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1">
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="34" t="s">
         <v>55</v>
       </c>
@@ -2235,7 +2235,7 @@
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
     </row>
-    <row r="67" spans="1:13" ht="15" thickBot="1">
+    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="34" t="s">
         <v>51</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
     </row>
-    <row r="68" spans="1:13" ht="15" thickBot="1">
+    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="34" t="s">
         <v>52</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="L68" s="17"/>
       <c r="M68" s="17"/>
     </row>
-    <row r="69" spans="1:13" ht="15" thickBot="1">
+    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>31</v>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
     </row>
-    <row r="70" spans="1:13" ht="15" thickBot="1">
+    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>32</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>
     </row>
-    <row r="71" spans="1:13" ht="15" thickBot="1">
+    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="34" t="s">
         <v>33</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
     </row>
-    <row r="72" spans="1:13" ht="15" thickBot="1">
+    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="34" t="s">
         <v>34</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
     </row>
-    <row r="73" spans="1:13" ht="15" thickBot="1">
+    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="34" t="s">
         <v>35</v>
       </c>
@@ -2356,7 +2356,7 @@
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
     </row>
-    <row r="74" spans="1:13" ht="15" thickBot="1">
+    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>47</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="L74" s="35"/>
       <c r="M74" s="17"/>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1">
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>45</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
     </row>
-    <row r="76" spans="1:13" ht="15" thickBot="1">
+    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>46</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="L76" s="35"/>
       <c r="M76" s="17"/>
     </row>
-    <row r="77" spans="1:13" ht="15" thickBot="1">
+    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
         <v>48</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="L77" s="36"/>
       <c r="M77" s="18"/>
     </row>
-    <row r="78" spans="1:13" ht="15" thickBot="1">
+    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="32" t="s">
         <v>49</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="L78" s="17"/>
       <c r="M78" s="17"/>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="34" t="s">
         <v>50</v>
       </c>
@@ -2462,8 +2462,8 @@
       <c r="L79" s="36"/>
       <c r="M79" s="18"/>
     </row>
-    <row r="80" spans="1:13" ht="15" thickBot="1"/>
-    <row r="81" spans="1:15" ht="15" thickBot="1">
+    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="5" t="s">
         <v>40</v>
@@ -2508,7 +2508,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15" customHeight="1" thickBot="1">
+    <row r="82" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="N82" s="13"/>
       <c r="O82" s="28"/>
     </row>
-    <row r="83" spans="1:15" ht="15" thickBot="1">
+    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>10</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="N83" s="16"/>
       <c r="O83" s="29"/>
     </row>
-    <row r="84" spans="1:15" ht="15" thickBot="1">
+    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>41</v>
       </c>
@@ -2571,7 +2571,7 @@
       <c r="N84" s="13"/>
       <c r="O84" s="28"/>
     </row>
-    <row r="85" spans="1:15" ht="15" thickBot="1">
+    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>11</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="N85" s="16"/>
       <c r="O85" s="29"/>
     </row>
-    <row r="86" spans="1:15" ht="15" thickBot="1">
+    <row r="86" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>12</v>
       </c>
@@ -2617,7 +2617,7 @@
       <c r="N86" s="3"/>
       <c r="O86" s="28"/>
     </row>
-    <row r="87" spans="1:15" ht="15" thickBot="1">
+    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>13</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="N87" s="16"/>
       <c r="O87" s="29"/>
     </row>
-    <row r="88" spans="1:15" ht="15" thickBot="1">
+    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>14</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="N88" s="13"/>
       <c r="O88" s="4"/>
     </row>
-    <row r="89" spans="1:15" ht="15" thickBot="1">
+    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>15</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="N89" s="25"/>
       <c r="O89" s="29"/>
     </row>
-    <row r="90" spans="1:15" ht="15" thickBot="1">
+    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>16</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="N90" s="13"/>
       <c r="O90" s="28"/>
     </row>
-    <row r="91" spans="1:15" ht="15" thickBot="1">
+    <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>17</v>
       </c>
@@ -2726,7 +2726,7 @@
       <c r="N91" s="16"/>
       <c r="O91" s="29"/>
     </row>
-    <row r="92" spans="1:15" ht="15" thickBot="1">
+    <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>22</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="N92" s="13"/>
       <c r="O92" s="28"/>
     </row>
-    <row r="93" spans="1:15" ht="15" thickBot="1">
+    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>23</v>
       </c>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="O93" s="29"/>
     </row>
-    <row r="94" spans="1:15" ht="15" thickBot="1">
+    <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
         <v>24</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="N94" s="3"/>
       <c r="O94" s="28"/>
     </row>
-    <row r="95" spans="1:15" ht="15" thickBot="1">
+    <row r="95" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>25</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="N95" s="16"/>
       <c r="O95" s="29"/>
     </row>
-    <row r="96" spans="1:15" ht="15" thickBot="1">
+    <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>42</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15" thickBot="1">
+    <row r="97" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>43</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="N97" s="25"/>
       <c r="O97" s="29"/>
     </row>
-    <row r="98" spans="1:15" ht="15" thickBot="1">
+    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>44</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="15" thickBot="1">
+    <row r="99" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>26</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="N99" s="16"/>
       <c r="O99" s="29"/>
     </row>
-    <row r="100" spans="1:15" ht="15" thickBot="1">
+    <row r="100" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>27</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="N100" s="21"/>
       <c r="O100" s="30"/>
     </row>
-    <row r="101" spans="1:15" ht="15" thickBot="1">
+    <row r="101" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>28</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="N101" s="17"/>
       <c r="O101" s="17"/>
     </row>
-    <row r="102" spans="1:15" ht="15" thickBot="1">
+    <row r="102" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>18</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="N102" s="18"/>
       <c r="O102" s="18"/>
     </row>
-    <row r="103" spans="1:15" ht="15" thickBot="1">
+    <row r="103" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>29</v>
       </c>
@@ -2986,7 +2986,7 @@
       <c r="N103" s="17"/>
       <c r="O103" s="17"/>
     </row>
-    <row r="104" spans="1:15" ht="15" thickBot="1">
+    <row r="104" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>30</v>
       </c>
@@ -3005,7 +3005,7 @@
       <c r="N104" s="18"/>
       <c r="O104" s="18"/>
     </row>
-    <row r="105" spans="1:15" ht="15" thickBot="1">
+    <row r="105" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>55</v>
       </c>
@@ -3026,7 +3026,7 @@
       <c r="N105" s="17"/>
       <c r="O105" s="17"/>
     </row>
-    <row r="106" spans="1:15" ht="15" thickBot="1">
+    <row r="106" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>51</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="N106" s="18"/>
       <c r="O106" s="18"/>
     </row>
-    <row r="107" spans="1:15" ht="15" thickBot="1">
+    <row r="107" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>52</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="N107" s="17"/>
       <c r="O107" s="17"/>
     </row>
-    <row r="108" spans="1:15" ht="15" thickBot="1">
+    <row r="108" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>31</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="N108" s="18"/>
       <c r="O108" s="18"/>
     </row>
-    <row r="109" spans="1:15" ht="15" thickBot="1">
+    <row r="109" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>32</v>
       </c>
@@ -3106,7 +3106,7 @@
       <c r="N109" s="17"/>
       <c r="O109" s="17"/>
     </row>
-    <row r="110" spans="1:15" ht="15" thickBot="1">
+    <row r="110" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>33</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="N110" s="18"/>
       <c r="O110" s="18"/>
     </row>
-    <row r="111" spans="1:15" ht="15" thickBot="1">
+    <row r="111" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>34</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="N111" s="17"/>
       <c r="O111" s="17"/>
     </row>
-    <row r="112" spans="1:15" ht="15" thickBot="1">
+    <row r="112" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>35</v>
       </c>
@@ -3169,7 +3169,7 @@
       <c r="N112" s="18"/>
       <c r="O112" s="18"/>
     </row>
-    <row r="113" spans="1:15" ht="15" thickBot="1">
+    <row r="113" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>47</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="N113" s="10"/>
       <c r="O113" s="29"/>
     </row>
-    <row r="114" spans="1:15" ht="15" thickBot="1">
+    <row r="114" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>45</v>
       </c>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="O114" s="18"/>
     </row>
-    <row r="115" spans="1:15" ht="15" thickBot="1">
+    <row r="115" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>46</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="15" thickBot="1">
+    <row r="116" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>48</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="N116" s="20"/>
       <c r="O116" s="30"/>
     </row>
-    <row r="117" spans="1:15" ht="15" thickBot="1">
+    <row r="117" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>49</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="N117" s="17"/>
       <c r="O117" s="17"/>
     </row>
-    <row r="118" spans="1:15" ht="15" thickBot="1">
+    <row r="118" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>50</v>
       </c>
